--- a/classfiers/bloated/svm/smote/bloated-svm-poly-results.xlsx
+++ b/classfiers/bloated/svm/smote/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5590909090909091</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758241758241759</v>
+        <v>0.6422018348623852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.677892561983471</v>
+        <v>0.6392416029306206</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5409090909090909</v>
+        <v>0.615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7020648967551621</v>
+        <v>0.7616099071207431</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8126652892561983</v>
+        <v>0.8580348258706467</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9461538461538461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5363636363636364</v>
+        <v>0.615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6820809248554914</v>
+        <v>0.7454545454545454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8756404958677686</v>
+        <v>0.8888308457711442</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5799086757990868</v>
+        <v>0.6019900497512438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7341040462427746</v>
+        <v>0.7515527950310559</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9627231216272313</v>
+        <v>0.9648507462686567</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7246376811594203</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9953300124533002</v>
+        <v>0.994228855721393</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9581349206349206</v>
+        <v>0.9558974358974359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5568908260689083</v>
+        <v>0.5843084577114428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7037423449674048</v>
+        <v>0.7249257212556507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8648502962375939</v>
+        <v>0.8690373753124924</v>
       </c>
     </row>
   </sheetData>
